--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -76,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,10 +110,74 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,56 +189,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -182,15 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,36 +230,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -248,19 +248,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,13 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,133 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,54 +447,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +481,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -539,21 +506,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,7 +565,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,122 +574,122 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,6 +700,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,10 +1024,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1075,14 +1078,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="1">
-        <v>14025</v>
+        <v>9825</v>
       </c>
       <c r="D2" s="1">
         <v>251.82</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>85723.18</v>
+        <v>89923.18</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1130,14 +1133,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>1127.06</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>896.52</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>9976.42</v>
+        <v>11103.48</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1148,7 +1151,7 @@
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
@@ -1216,11 +1219,11 @@
         <v>3680.55</v>
       </c>
       <c r="D7" s="1">
-        <v>48.3</v>
+        <v>5850.3</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>44271.15</v>
+        <v>38469.15</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1246,7 +1249,12 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>28800.86</v>
+        <v>29275.8</v>
+      </c>
+    </row>
+    <row r="15" spans="12:12">
+      <c r="L15" s="1">
+        <v>4675</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,13 +90,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -112,22 +105,92 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,56 +204,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,31 +226,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,19 +248,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,163 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,71 +439,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,6 +461,51 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -539,157 +519,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,9 +700,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,8 +1023,8 @@
   <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1078,14 +1075,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="1">
-        <v>9825</v>
+        <v>425</v>
       </c>
       <c r="D2" s="1">
         <v>251.82</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>89923.18</v>
+        <v>99323.18</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1151,7 +1148,7 @@
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
@@ -1249,7 +1246,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>29275.8</v>
+        <v>19875.8</v>
       </c>
     </row>
     <row r="15" spans="12:12">

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -1023,8 +1023,8 @@
   <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1106,11 +1106,11 @@
         <v>2718</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>4675</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>37282</v>
+        <v>32607</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1216,11 +1216,11 @@
         <v>3680.55</v>
       </c>
       <c r="D7" s="1">
-        <v>5850.3</v>
+        <v>10525</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>38469.15</v>
+        <v>33794.45</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1246,7 +1246,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>19875.8</v>
+        <v>29225.5</v>
       </c>
     </row>
     <row r="15" spans="12:12">

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14520"/>
+    <workbookView windowWidth="31080" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,6 +90,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -108,6 +115,67 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,11 +187,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,62 +218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,35 +232,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -248,6 +248,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -260,13 +302,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,157 +326,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,8 +445,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,6 +455,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -490,52 +531,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,148 +544,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1130,14 +1130,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
+        <v>926.52</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>896.52</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>11103.48</v>
+        <v>11073.48</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1176,7 +1176,7 @@
       <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -1216,11 +1216,11 @@
         <v>3680.55</v>
       </c>
       <c r="D7" s="1">
-        <v>10525</v>
+        <v>5850.3</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>33794.45</v>
+        <v>38469.15</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1231,7 +1231,7 @@
       <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
@@ -1246,12 +1246,12 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>29225.5</v>
+        <v>24580.8</v>
       </c>
     </row>
     <row r="15" spans="12:12">
       <c r="L15" s="1">
-        <v>4675</v>
+        <v>1625</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,6 +110,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -118,8 +125,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,52 +157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -187,14 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -202,9 +172,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,13 +204,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +216,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -248,187 +248,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,26 +451,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +492,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -502,16 +511,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,170 +539,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1024,7 +1027,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1075,14 +1078,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="1">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>251.82</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>99323.18</v>
+        <v>99748.18</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1176,7 +1179,7 @@
       <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -1231,7 +1234,7 @@
       <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
@@ -1246,7 +1249,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>24580.8</v>
+        <v>24155.8</v>
       </c>
     </row>
     <row r="15" spans="12:12">

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1078,14 +1078,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>3680</v>
       </c>
       <c r="D2" s="1">
         <v>251.82</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>99748.18</v>
+        <v>96068.18</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1216,14 +1216,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="1">
-        <v>3680.55</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>5850.3</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>38469.15</v>
+        <v>42149.7</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1234,7 +1234,7 @@
       <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
@@ -1249,7 +1249,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>24155.8</v>
+        <v>24155.25</v>
       </c>
     </row>
     <row r="15" spans="12:12">

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,60 +90,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,10 +136,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,8 +165,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,14 +197,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,40 +232,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,12 +242,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -260,43 +254,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,37 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,85 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,32 +439,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,15 +456,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +486,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -544,152 +538,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,9 +694,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1027,7 +1018,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1078,14 +1069,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="1">
-        <v>3680</v>
+        <v>8221</v>
       </c>
       <c r="D2" s="1">
         <v>251.82</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>96068.18</v>
+        <v>91527.18</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1096,7 +1087,7 @@
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
@@ -1161,14 +1152,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>4541.61</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>8458.39</v>
+        <v>13000</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1179,7 +1170,7 @@
       <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -1234,7 +1225,7 @@
       <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
@@ -1249,7 +1240,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>24155.25</v>
+        <v>24154.64</v>
       </c>
     </row>
     <row r="15" spans="12:12">

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>名称</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>光大</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>平安</t>
@@ -76,9 +73,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,6 +88,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,11 +108,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,24 +186,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,14 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -165,69 +223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,25 +245,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,151 +383,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,32 +442,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -482,24 +453,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,164 +486,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1018,7 +1012,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1069,14 +1063,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="1">
-        <v>8221</v>
+        <v>9080.13</v>
       </c>
       <c r="D2" s="1">
-        <v>251.82</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>91527.18</v>
+        <v>90760.87</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1124,14 +1118,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>926.52</v>
+        <v>938.85</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>11073.48</v>
+        <v>10583.15</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1152,14 +1146,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>12995</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1170,7 +1164,7 @@
       <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -1180,14 +1174,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>1512</v>
+        <v>1622.6</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>4675</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>16488</v>
+        <f>B6-(C6+D6)</f>
+        <v>11702.4</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1196,25 +1190,25 @@
         <v>8</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>48000</v>
       </c>
       <c r="C7" s="1">
+        <v>7475.3</v>
+      </c>
+      <c r="D7" s="1">
         <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5850.3</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>42149.7</v>
+        <v>40524.7</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1229,18 +1223,18 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>24154.64</v>
+        <v>31826.88</v>
       </c>
     </row>
     <row r="15" spans="12:12">

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,7 +87,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,9 +108,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,33 +122,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +162,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -178,11 +177,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,36 +209,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,13 +239,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,169 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,8 +436,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,17 +496,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,26 +525,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -535,148 +535,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1091,14 +1091,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
-        <v>2718</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>4675</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>32607</v>
+        <v>35325</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1180,7 +1180,7 @@
         <v>4675</v>
       </c>
       <c r="E6" s="1">
-        <f>B6-(C6+D6)</f>
+        <f t="shared" si="0"/>
         <v>11702.4</v>
       </c>
       <c r="F6" s="1">
@@ -1234,7 +1234,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>31826.88</v>
+        <v>29108.88</v>
       </c>
     </row>
     <row r="15" spans="12:12">

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,7 +94,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,7 +125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,15 +148,75 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,82 +229,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,25 +239,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,157 +365,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,21 +446,45 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -481,21 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -507,26 +516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,145 +535,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1009,10 +1009,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1055,7 +1055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1066,11 +1066,11 @@
         <v>9080.13</v>
       </c>
       <c r="D2" s="1">
-        <v>159</v>
+        <v>1781</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>90760.87</v>
+        <v>89138.87</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1081,7 +1081,16 @@
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <f>SUM(I2+J2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
@@ -1174,14 +1183,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>1622.6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>4675</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>11702.4</v>
+        <v>13325</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1234,12 +1243,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>29108.88</v>
-      </c>
-    </row>
-    <row r="15" spans="12:12">
-      <c r="L15" s="1">
-        <v>1625</v>
+        <v>29108.28</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>名称</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>平安</t>
-  </si>
-  <si>
-    <t>上海</t>
   </si>
   <si>
     <t>总共使用</t>
@@ -72,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,31 +83,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,108 +198,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -239,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,26 +433,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +454,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -485,6 +473,41 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -504,179 +527,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,7 +1009,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1063,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="1">
-        <v>9080.13</v>
+        <v>4980.13</v>
       </c>
       <c r="D2" s="1">
-        <v>1781</v>
+        <v>5338.3</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>89138.87</v>
+        <v>89681.57</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1100,10 +1097,10 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
+        <v>4675</v>
+      </c>
+      <c r="D3" s="1">
         <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4675</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
@@ -1127,14 +1124,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>938.85</v>
+        <v>478</v>
       </c>
       <c r="D4" s="1">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>10583.15</v>
+        <v>11522</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1155,14 +1152,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>12995</v>
+        <v>12062</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1183,10 +1180,10 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
+        <v>4675</v>
+      </c>
+      <c r="D6" s="1">
         <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4675</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
@@ -1213,11 +1210,11 @@
         <v>7475.3</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>4132.46</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>40524.7</v>
+        <v>36392.24</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1229,21 +1226,16 @@
         <v>9</v>
       </c>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>29108.28</v>
+        <v>32692.19</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31080" windowHeight="14520"/>
+    <workbookView windowWidth="32220" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,13 +84,28 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -105,16 +120,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,9 +160,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,6 +169,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -151,52 +190,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -204,24 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,41 +466,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -513,6 +487,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -527,161 +516,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1009,7 +1012,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1059,15 +1062,15 @@
       <c r="B2" s="1">
         <v>100000</v>
       </c>
-      <c r="C2" s="1">
-        <v>4980.13</v>
+      <c r="C2" s="2">
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>5338.3</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>89681.57</v>
+        <v>94661.7</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1075,10 +1078,10 @@
       <c r="G2" s="1">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>0</v>
       </c>
       <c r="J2" s="1">
@@ -1100,11 +1103,11 @@
         <v>4675</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>7480</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>35325</v>
+        <v>27845</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1112,7 +1115,7 @@
       <c r="G3" s="1">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1142,7 +1145,7 @@
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
@@ -1152,14 +1155,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="D5" s="1">
-        <v>938</v>
+        <v>2500</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>12062</v>
+        <v>9562</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1167,10 +1170,10 @@
       <c r="G5" s="1">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -1183,11 +1186,11 @@
         <v>4675</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>3475</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>13325</v>
+        <v>9850</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1195,7 +1198,7 @@
       <c r="G6" s="1">
         <v>8</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1206,15 +1209,15 @@
       <c r="B7" s="1">
         <v>48000</v>
       </c>
-      <c r="C7" s="1">
-        <v>7475.3</v>
+      <c r="C7" s="2">
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>4132.46</v>
+        <v>9129.46</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>36392.24</v>
+        <v>38870.54</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1222,10 +1225,10 @@
       <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
@@ -1235,7 +1238,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>32692.19</v>
+        <v>38688.76</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32220" windowHeight="14760"/>
+    <workbookView windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,6 +80,142 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,142 +226,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,6 +236,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -248,31 +344,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,31 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,103 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,24 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,15 +441,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,17 +460,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,13 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,159 +532,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1012,7 +1009,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1063,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>5483.91</v>
       </c>
       <c r="D2" s="1">
-        <v>5338.3</v>
+        <v>256.03</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>94661.7</v>
+        <v>94260.06</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1078,10 +1075,10 @@
       <c r="G2" s="1">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="1">
@@ -1100,14 +1097,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
-        <v>4675</v>
+        <v>2475</v>
       </c>
       <c r="D3" s="1">
         <v>7480</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>27845</v>
+        <v>30045</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1115,7 +1112,7 @@
       <c r="G3" s="1">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1130,11 +1127,11 @@
         <v>478</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>3675</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>11522</v>
+        <v>7847</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1145,7 +1142,7 @@
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
@@ -1155,14 +1152,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>938</v>
+        <v>3443</v>
       </c>
       <c r="D5" s="1">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>9562</v>
+        <v>9557</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1170,10 +1167,10 @@
       <c r="G5" s="1">
         <v>24</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -1183,14 +1180,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>4675</v>
+        <v>3175</v>
       </c>
       <c r="D6" s="1">
-        <v>3475</v>
+        <v>4242.77</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>9850</v>
+        <v>10582.23</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1198,7 +1195,7 @@
       <c r="G6" s="1">
         <v>8</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1210,14 +1207,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="2">
+        <v>9384.12</v>
+      </c>
+      <c r="D7" s="1">
         <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>9129.46</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>38870.54</v>
+        <v>38615.88</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1225,10 +1222,10 @@
       <c r="G7" s="1">
         <v>25</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
@@ -1238,7 +1235,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>38688.76</v>
+        <v>40092.83</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,21 +84,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,36 +135,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -153,29 +146,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,12 +161,57 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -209,21 +224,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,11 +478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,30 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,148 +532,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1060,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>5483.91</v>
+        <v>4962.08</v>
       </c>
       <c r="D2" s="1">
         <v>256.03</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>94260.06</v>
+        <v>94781.89</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1097,14 +1097,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
-        <v>2475</v>
+        <v>7480</v>
       </c>
       <c r="D3" s="1">
-        <v>7480</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>30045</v>
+        <v>32520</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1124,14 +1124,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>478</v>
+        <v>3675</v>
       </c>
       <c r="D4" s="1">
-        <v>3675</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>7847</v>
+        <v>8325</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1152,14 +1152,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>3443</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>9557</v>
+        <v>13000</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1180,14 +1180,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>3175</v>
+        <v>4242.77</v>
       </c>
       <c r="D6" s="1">
-        <v>4242.77</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>10582.23</v>
+        <v>13757.23</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1235,7 +1235,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>40092.83</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -69,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -91,6 +91,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -98,13 +136,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -112,16 +168,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,33 +205,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,61 +226,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,13 +236,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,37 +380,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,127 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,22 +449,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,6 +478,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -493,22 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,152 +538,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +691,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,10 +1015,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1052,7 +1061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1063,11 +1072,11 @@
         <v>4962.08</v>
       </c>
       <c r="D2" s="1">
-        <v>256.03</v>
+        <v>587.03</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>94781.89</v>
+        <v>94450.89</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1088,6 +1097,7 @@
         <f>SUM(I2+J2)</f>
         <v>0</v>
       </c>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
@@ -1210,11 +1220,11 @@
         <v>9384.12</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>38615.88</v>
+        <v>38605.88</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1235,7 +1245,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>30000</v>
+        <v>30341</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -683,11 +683,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1018,7 +1021,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1069,14 +1072,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>4962.08</v>
+        <v>587.03</v>
       </c>
       <c r="D2" s="1">
-        <v>587.03</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>94450.89</v>
+        <v>99412.97</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1110,11 +1113,11 @@
         <v>7480</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>4962</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>32520</v>
+        <v>27558</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1162,14 +1165,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1209,7 +1212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1217,14 +1220,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="2">
-        <v>9384.12</v>
+        <v>6384.12</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>38605.88</v>
+        <v>41605.88</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1236,6 +1239,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="2"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
@@ -1245,7 +1249,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>30341</v>
+        <v>30340.92</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -70,9 +70,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,36 +95,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,9 +106,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,6 +146,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -169,29 +161,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,29 +219,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,7 +236,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +332,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,169 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +458,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -473,6 +482,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -503,187 +527,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,9 +688,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,7 +1012,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1075,11 +1066,11 @@
         <v>587.03</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>6384</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>99412.97</v>
+        <v>93028.97</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1100,7 +1091,7 @@
         <f>SUM(I2+J2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
@@ -1220,14 +1211,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="2">
-        <v>6384.12</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>41605.88</v>
+        <v>47990</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1239,7 +1230,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="L7" s="4"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
@@ -1249,7 +1240,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>30340.92</v>
+        <v>30340.8</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14780"/>
+    <workbookView windowWidth="28240" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,11 +90,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,6 +112,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -114,15 +128,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,92 +211,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,67 +236,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,115 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +443,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,7 +452,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +502,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,190 +527,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1012,7 +1009,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1063,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>587.03</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>6384</v>
+        <v>1168.1</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>93028.97</v>
+        <v>98831.9</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1101,14 +1098,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
-        <v>7480</v>
+        <v>4962</v>
       </c>
       <c r="D3" s="1">
-        <v>4962</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>27558</v>
+        <v>34038</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1128,14 +1125,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>3675</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>8325</v>
+        <v>10000</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1156,14 +1153,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>3000</v>
+        <v>3005</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>9995</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1184,14 +1181,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>4242.77</v>
+        <v>7480</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>4102</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>13757.23</v>
+        <v>6418</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1211,14 +1208,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>169.81</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>7917.77</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>47990</v>
+        <v>39912.42</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1230,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
@@ -1240,7 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>30340.8</v>
+        <v>31804.68</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28240" windowHeight="12600"/>
+    <workbookView windowWidth="28000" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,13 +84,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -98,7 +91,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,6 +105,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -121,30 +121,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,46 +135,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +159,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -222,6 +186,42 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,15 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,24 +441,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,17 +480,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,129 +494,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,22 +658,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1060,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>1270.1</v>
       </c>
       <c r="D2" s="1">
-        <v>1168.1</v>
+        <v>4962</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>98831.9</v>
+        <v>93767.9</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1098,14 +1098,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
-        <v>4962</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>1000</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>34038</v>
+        <v>39000</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1125,14 +1125,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
+        <v>2109.01</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2000</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>9890.99</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1153,14 +1153,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>3005</v>
+        <v>500</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>9995</v>
+        <v>12500</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1181,14 +1181,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>7480</v>
+        <v>4000.86</v>
       </c>
       <c r="D6" s="1">
-        <v>4102</v>
+        <v>4207.78</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>6418</v>
+        <v>9791.36</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1208,14 +1208,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="2">
-        <v>169.81</v>
+        <v>7917.77</v>
       </c>
       <c r="D7" s="1">
-        <v>7917.77</v>
+        <v>3709</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>39912.42</v>
+        <v>36373.23</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1237,7 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>31804.68</v>
+        <v>29676.52</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,6 +84,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -91,7 +106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,28 +120,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -135,6 +128,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -146,6 +146,44 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,67 +199,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,91 +236,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,31 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,55 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,6 +459,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -461,6 +485,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,45 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -532,94 +532,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,52 +628,52 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1060,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>1270.1</v>
+        <v>5384.49</v>
       </c>
       <c r="D2" s="1">
-        <v>4962</v>
+        <v>556</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>93767.9</v>
+        <v>94059.51</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1098,14 +1098,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1139.09</v>
       </c>
       <c r="D3" s="1">
-        <v>1000</v>
+        <v>1270</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>39000</v>
+        <v>37590.91</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1125,14 +1125,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>2109.01</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>3017</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>9890.99</v>
+        <v>8983</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1153,14 +1153,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>12500</v>
+        <v>12447</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1181,14 +1181,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>4000.86</v>
+        <v>8434.07</v>
       </c>
       <c r="D6" s="1">
-        <v>4207.78</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>9791.36</v>
+        <v>9565.93</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1208,14 +1208,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="2">
-        <v>7917.77</v>
+        <v>4900.77</v>
       </c>
       <c r="D7" s="1">
-        <v>3709</v>
+        <v>5818</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>36373.23</v>
+        <v>37281.23</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1237,7 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>29676.52</v>
+        <v>31072.42</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="14640"/>
+    <workbookView windowWidth="30320" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,29 +84,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,108 +211,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,31 +236,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,151 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,75 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -458,222 +527,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,10 +1006,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1060,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>5384.49</v>
+        <v>7852.49</v>
       </c>
       <c r="D2" s="1">
-        <v>556</v>
+        <v>5273</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>94059.51</v>
+        <v>86874.51</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1098,14 +1098,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
-        <v>1139.09</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1270</v>
+        <v>4270</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>37590.91</v>
+        <v>35730</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1125,10 +1125,10 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
+        <v>3017</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3017</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
@@ -1153,14 +1153,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
+        <v>574.24</v>
+      </c>
+      <c r="D5" s="1">
         <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>553</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>12447</v>
+        <v>12425.76</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1181,14 +1181,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>8434.07</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>9565.93</v>
+        <v>18000</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1208,14 +1208,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="2">
-        <v>4900.77</v>
+        <v>6005.5</v>
       </c>
       <c r="D7" s="1">
-        <v>5818</v>
+        <v>4321</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>37281.23</v>
+        <v>37673.5</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1237,7 +1237,12 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>31072.42</v>
+        <v>31313.23</v>
+      </c>
+    </row>
+    <row r="14" spans="9:9">
+      <c r="I14" s="1">
+        <v>4310</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30320" windowHeight="14640"/>
+    <workbookView windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,21 +84,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,74 +183,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,33 +212,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,37 +236,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,145 +404,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,6 +470,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,50 +523,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -532,148 +532,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1060,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>7852.49</v>
+        <v>12078.4</v>
       </c>
       <c r="D2" s="1">
-        <v>5273</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>86874.51</v>
+        <v>87880.6</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1098,14 +1098,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
+        <v>4315.87</v>
+      </c>
+      <c r="D3" s="1">
         <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4270</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>35730</v>
+        <v>35684.13</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1125,14 +1125,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>3017</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>8983</v>
+        <v>12000</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1153,14 +1153,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>574.24</v>
+        <v>27.85</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>12425.76</v>
+        <v>12972.15</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1181,14 +1181,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>2041.71</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>3092.6</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>12865.69</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1208,14 +1208,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="2">
-        <v>6005.5</v>
+        <v>12162</v>
       </c>
       <c r="D7" s="1">
-        <v>4321</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>37673.5</v>
+        <v>35838</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1237,7 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>31313.23</v>
+        <v>33759.43</v>
       </c>
     </row>
     <row r="14" spans="9:9">

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -71,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,79 +97,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,9 +128,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,36 +226,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,18 +242,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -261,162 +417,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,13 +439,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,17 +463,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,21 +499,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -519,11 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,142 +532,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1063,11 +1063,11 @@
         <v>12078.4</v>
       </c>
       <c r="D2" s="1">
-        <v>41</v>
+        <v>4356</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>87880.6</v>
+        <v>83565.6</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1098,14 +1098,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
-        <v>4315.87</v>
+        <v>116.95</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>35684.13</v>
+        <v>39883.05</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1125,14 +1125,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>2041</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>9959</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1181,14 +1181,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>2041.71</v>
+        <v>3121.66</v>
       </c>
       <c r="D6" s="1">
-        <v>3092.6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>12865.69</v>
+        <v>14878.34</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1237,7 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>33759.43</v>
+        <v>33903.86</v>
       </c>
     </row>
     <row r="14" spans="9:9">

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -104,19 +104,118 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,105 +226,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,6 +242,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -254,49 +260,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,115 +398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +439,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -454,20 +463,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,21 +485,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,16 +504,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -532,142 +532,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,10 +1006,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1060,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>12078.4</v>
+        <v>2041</v>
       </c>
       <c r="D2" s="1">
         <v>4356</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>83565.6</v>
+        <v>93603</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1101,11 +1101,11 @@
         <v>116.95</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>4026</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>39883.05</v>
+        <v>35857.05</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1125,14 +1125,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>2041</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>9959</v>
+        <v>12000</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1184,11 +1184,11 @@
         <v>3121.66</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>4026</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>14878.34</v>
+        <v>10852.34</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1211,11 +1211,11 @@
         <v>12162</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>4026</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>35838</v>
+        <v>31812</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1237,12 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>33903.86</v>
-      </c>
-    </row>
-    <row r="14" spans="9:9">
-      <c r="I14" s="1">
-        <v>4310</v>
+        <v>33903.46</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,14 +91,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,8 +143,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,6 +184,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,19 +212,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,75 +224,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,6 +236,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -248,175 +332,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,15 +439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -459,6 +450,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,15 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,145 +532,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1060,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>2041</v>
+        <v>9474</v>
       </c>
       <c r="D2" s="1">
-        <v>4356</v>
+        <v>3321</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>93603</v>
+        <v>87205</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1098,14 +1098,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
-        <v>116.95</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>4026</v>
+        <v>7066</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>35857.05</v>
+        <v>32934</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1125,14 +1125,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>3040</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>8960</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1153,14 +1153,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>27.85</v>
+        <v>5.13</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>12972.15</v>
+        <v>12994.87</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1181,14 +1181,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>3121.66</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>4026</v>
+        <v>7066</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>10852.34</v>
+        <v>10934</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1208,14 +1208,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="2">
-        <v>12162</v>
+        <v>4026</v>
       </c>
       <c r="D7" s="1">
-        <v>4026</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>31812</v>
+        <v>43974</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1237,7 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>33903.46</v>
+        <v>33998.13</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,12 +91,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -113,23 +159,61 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,90 +226,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,19 +236,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,163 +404,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,21 +439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -463,25 +448,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -493,6 +469,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -513,16 +498,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -532,94 +532,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,49 +628,49 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1060,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>9474</v>
+        <v>9533.45</v>
       </c>
       <c r="D2" s="1">
-        <v>3321</v>
+        <v>672.75</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>87205</v>
+        <v>89793.8</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1098,14 +1098,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>7066</v>
       </c>
       <c r="D3" s="1">
-        <v>7066</v>
+        <v>3158</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>32934</v>
+        <v>29776</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1125,14 +1125,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>3040</v>
+        <v>5000</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>8960</v>
+        <v>7000</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1153,14 +1153,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>5.13</v>
+        <v>3163</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>12994.87</v>
+        <v>9837</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1237,7 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>33998.13</v>
+        <v>39685.2</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1181,14 +1181,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>7066</v>
       </c>
       <c r="D6" s="1">
-        <v>7066</v>
+        <v>3304.67</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>10934</v>
+        <v>7629.33</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1208,14 +1208,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="2">
-        <v>4026</v>
+        <v>3040</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>43974</v>
+        <v>44960</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1237,7 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>39685.2</v>
+        <v>42003.87</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1098,14 +1098,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
-        <v>7066</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>3158</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>29776</v>
+        <v>36842</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1181,14 +1181,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>7066</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>3304.67</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>7629.33</v>
+        <v>14695.33</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1237,7 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>42003.87</v>
+        <v>27871.87</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -70,9 +70,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,7 +91,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,49 +104,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,7 +121,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -175,45 +137,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,6 +150,82 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,19 +236,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,37 +386,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,121 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +443,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,22 +478,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,150 +512,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1060,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>9533.45</v>
+        <v>5563.45</v>
       </c>
       <c r="D2" s="1">
-        <v>672.75</v>
+        <v>7912.75</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>89793.8</v>
+        <v>86523.8</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1098,14 +1098,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>3341.5</v>
       </c>
       <c r="D3" s="1">
-        <v>3158</v>
+        <v>5000</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>36842</v>
+        <v>31658.5</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1125,14 +1125,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1181,14 +1181,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>3468.24</v>
       </c>
       <c r="D6" s="1">
-        <v>3304.67</v>
+        <v>4000</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>14695.33</v>
+        <v>10531.76</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1211,11 +1211,11 @@
         <v>3040</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>7066</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>44960</v>
+        <v>37894</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1237,7 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>27871.87</v>
+        <v>42554.94</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -70,9 +70,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,8 +97,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,6 +127,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -120,26 +143,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,9 +166,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,22 +199,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,37 +215,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,175 +242,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,9 +441,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,37 +498,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,162 +527,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1060,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>5563.45</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>7912.75</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>86523.8</v>
+        <v>92087.25</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1101,11 +1101,11 @@
         <v>3341.5</v>
       </c>
       <c r="D3" s="1">
-        <v>5000</v>
+        <v>8163</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>31658.5</v>
+        <v>28495.5</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1128,11 +1128,11 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>5563.45</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>6436.55</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1153,14 +1153,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>3163</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>9837</v>
+        <v>13000</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,36 +84,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,11 +98,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,8 +136,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,9 +146,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,14 +213,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,45 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,181 +242,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,18 +433,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -469,7 +458,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,8 +481,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,17 +517,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,148 +532,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1060,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
+        <v>10939.77</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7912.75</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>92087.25</v>
+        <v>89060.23</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1098,14 +1098,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
-        <v>3341.5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>8163</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>28495.5</v>
+        <v>31837</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1125,10 +1125,10 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
+        <v>5563.45</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5563.45</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
@@ -1153,14 +1153,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>3341.5</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>9653.5</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1181,14 +1181,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>3468.24</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>4000</v>
+        <v>4042.88</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>10531.76</v>
+        <v>13957.12</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1208,14 +1208,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="2">
-        <v>3040</v>
+        <v>7066</v>
       </c>
       <c r="D7" s="1">
-        <v>7066</v>
+        <v>3468.24</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>37894</v>
+        <v>37465.76</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1237,7 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>42554.94</v>
+        <v>42589.84</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14400"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>名称</t>
   </si>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,7 +84,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,8 +165,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,6 +180,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -120,11 +196,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,92 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,69 +435,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,153 +464,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -690,54 +690,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1004,26 +1004,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.2589285714286" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.2583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.4821428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8303571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.9196428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.9464285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7946428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.14285714285714" style="1"/>
-    <col min="9" max="9" width="25.7410714285714" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="1"/>
+    <col min="3" max="3" width="15.4833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.9166666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.95" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7916666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.14166666666667" style="1"/>
+    <col min="9" max="9" width="25.7416666666667" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1060,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>10939.77</v>
+        <v>5711</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>89060.23</v>
+        <v>94289</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1098,14 +1098,14 @@
         <v>40000</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>8163</v>
       </c>
       <c r="D3" s="1">
-        <v>8163</v>
+        <v>6712</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>31837</v>
+        <v>25125</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1125,14 +1125,14 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>5563.45</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>6436.55</v>
+        <v>12000</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1153,14 +1153,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>3341</v>
       </c>
       <c r="D5" s="1">
-        <v>3341.5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>9653.5</v>
+        <v>9659</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1181,14 +1181,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
+        <v>7688.88</v>
+      </c>
+      <c r="D6" s="1">
         <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4042.88</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>13957.12</v>
+        <v>10311.12</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1208,14 +1208,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="2">
-        <v>7066</v>
+        <v>4066</v>
       </c>
       <c r="D7" s="1">
-        <v>3468.24</v>
+        <v>7114</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>37465.76</v>
+        <v>36820</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1237,7 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>42589.84</v>
+        <v>42795.88</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -84,21 +84,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,6 +144,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -120,31 +182,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,76 +222,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,13 +236,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,13 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,151 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +439,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -450,17 +474,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,24 +493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,17 +508,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -1060,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>5711</v>
+        <v>9777</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>8285</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>94289</v>
+        <v>81938</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1095,17 +1095,17 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="C3" s="1">
-        <v>8163</v>
+        <v>9980.95</v>
       </c>
       <c r="D3" s="1">
-        <v>6712</v>
+        <v>7267</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>25125</v>
+        <v>34752.05</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1128,11 +1128,11 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>4688</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>7312</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1153,14 +1153,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>3341</v>
+        <v>3346</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>9659</v>
+        <v>9654</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1181,14 +1181,14 @@
         <v>18000</v>
       </c>
       <c r="C6" s="1">
-        <v>7688.88</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>188.62</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>10311.12</v>
+        <v>17811.38</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1208,14 +1208,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="2">
-        <v>4066</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>7114</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>36820</v>
+        <v>48000</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1237,7 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>42795.88</v>
+        <v>43532.57</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21090" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -91,6 +91,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -100,6 +122,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,7 +173,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,82 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,91 +236,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,91 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,8 +457,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,36 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -507,26 +527,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,145 +535,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -1060,14 +1060,14 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>9777</v>
+        <v>10485</v>
       </c>
       <c r="D2" s="1">
-        <v>8285</v>
+        <v>5980</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>81938</v>
+        <v>83535</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1098,14 +1098,14 @@
         <v>52000</v>
       </c>
       <c r="C3" s="1">
-        <v>9980.95</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>7267</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>34752.05</v>
+        <v>44733</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1125,10 +1125,10 @@
         <v>12000</v>
       </c>
       <c r="C4" s="1">
+        <v>4688</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4688</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
@@ -1153,14 +1153,14 @@
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>3346</v>
+        <v>91.84</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>9654</v>
+        <v>12908.16</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1184,11 +1184,11 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>188.62</v>
+        <v>4000</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>17811.38</v>
+        <v>14000</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1208,14 +1208,14 @@
         <v>48000</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>13123</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>48000</v>
+        <v>34846.5</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1237,7 +1237,7 @@
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>43532.57</v>
+        <v>45665.34</v>
       </c>
     </row>
   </sheetData>

--- a/xyk.xlsx
+++ b/xyk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21090" windowHeight="9540"/>
+    <workbookView windowWidth="18525" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>名称</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>手机</t>
+  </si>
+  <si>
+    <t>当前刷</t>
   </si>
   <si>
     <t>中信</t>
@@ -69,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -83,6 +86,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -90,23 +116,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,22 +153,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,48 +177,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,9 +216,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,19 +239,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,163 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +448,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -456,9 +474,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,17 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -513,17 +522,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,10 +538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +550,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1012,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -1026,7 +1029,7 @@
     <col min="10" max="16384" width="9.14166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,24 +1053,27 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>10485</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>5980</v>
+        <v>7325.8</v>
       </c>
       <c r="E2" s="1">
         <f>B2-(C2+D2)</f>
-        <v>83535</v>
+        <v>92674.2</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -1076,36 +1082,27 @@
         <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <f>SUM(I2+J2)</f>
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>52000</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>3712.58</v>
       </c>
       <c r="D3" s="1">
-        <v>7267</v>
+        <v>6200</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E2:E7" si="0">B3-(C3+D3)</f>
-        <v>44733</v>
+        <v>42087.42</v>
       </c>
       <c r="F3" s="1">
         <v>19</v>
@@ -1114,25 +1111,25 @@
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>12000</v>
       </c>
       <c r="C4" s="1">
-        <v>4688</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>7312</v>
+        <v>12000</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1141,26 +1138,26 @@
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>13000</v>
       </c>
       <c r="C5" s="1">
-        <v>91.84</v>
+        <v>3505</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>12908.16</v>
+        <v>9495</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
@@ -1169,26 +1166,26 @@
         <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>18000</v>
       </c>
       <c r="C6" s="1">
+        <v>3864.9</v>
+      </c>
+      <c r="D6" s="1">
         <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4000</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>14135.1</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1197,25 +1194,25 @@
         <v>8</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>48000</v>
       </c>
       <c r="C7" s="2">
-        <v>13123</v>
+        <v>9663</v>
       </c>
       <c r="D7" s="1">
-        <v>30.5</v>
+        <v>7743</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>34846.5</v>
+        <v>30594</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -1224,20 +1221,20 @@
         <v>25</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="1">
         <f>C2+D2+C3+D3+C4+D4+C5+D5+C6+D6+C7+D7</f>
-        <v>45665.34</v>
+        <v>42014.28</v>
       </c>
     </row>
   </sheetData>
